--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{32CFB691-F93D-49EA-B420-BE0CDA043419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3664B7F0-8CDC-4C78-8DDB-A3EC79AB7C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="29070" windowHeight="16500" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="29100" windowHeight="16500" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,33 +21,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Lorraine</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Kez</t>
-  </si>
-  <si>
-    <t>Bon</t>
+    <t xml:space="preserve">Evalyn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wynona  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tammera  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shantay  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liza  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deetta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charla  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonette  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzanna  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winifred  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phylis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearl  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maddie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolonda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavera  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnetta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mazie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remedios  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberli  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagmar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grazyna  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliff  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglea  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devorah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patience  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shasta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sueann  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luana  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brynn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenni  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eula  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elton  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenna  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovetta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merissa  </t>
   </si>
 </sst>
 </file>
@@ -83,8 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,91 +528,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCE51DE-A78C-411E-9C77-FF8933E1607F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3664B7F0-8CDC-4C78-8DDB-A3EC79AB7C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B50FE69C-8DD2-4DB0-8096-FF6C322D2519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="29100" windowHeight="16500" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wound_assessment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,159 +22,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">Evalyn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rose  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wynona  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tammera  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shantay  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liza  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deetta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charla  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonette  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzanna  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elsy  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winifred  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phylis  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pearl  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maddie  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnolia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolonda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavera  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnetta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mazie  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remedios  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimberli  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olen  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagmar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonel  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazyna  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliff  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglea  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devorah  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patience  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shasta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sueann  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luana  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brynn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenni  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eula  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linh  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cara  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elton  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenna  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lovetta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merissa  </t>
+    <t>Evalyn</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Freda</t>
+  </si>
+  <si>
+    <t>Wynona</t>
+  </si>
+  <si>
+    <t>Tammera</t>
+  </si>
+  <si>
+    <t>Shantay</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Merissa</t>
+  </si>
+  <si>
+    <t>Lovetta</t>
+  </si>
+  <si>
+    <t>Lenna</t>
+  </si>
+  <si>
+    <t>Elton</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Eula</t>
+  </si>
+  <si>
+    <t>Jenni</t>
+  </si>
+  <si>
+    <t>Brynn</t>
+  </si>
+  <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>Sueann</t>
+  </si>
+  <si>
+    <t>Shasta</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>Devorah</t>
+  </si>
+  <si>
+    <t>Anglea</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Alda</t>
+  </si>
+  <si>
+    <t>Grazyna</t>
+  </si>
+  <si>
+    <t>Leonel</t>
+  </si>
+  <si>
+    <t>Carolin</t>
+  </si>
+  <si>
+    <t>Dagmar</t>
+  </si>
+  <si>
+    <t>Olen</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Kimberli</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Mazie</t>
+  </si>
+  <si>
+    <t>Arnetta</t>
+  </si>
+  <si>
+    <t>Lavera</t>
+  </si>
+  <si>
+    <t>Yolonda</t>
+  </si>
+  <si>
+    <t>Christi</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>Maddie</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Phylis</t>
+  </si>
+  <si>
+    <t>Winifred</t>
+  </si>
+  <si>
+    <t>Elsy</t>
+  </si>
+  <si>
+    <t>Suzanna</t>
+  </si>
+  <si>
+    <t>Tonette</t>
+  </si>
+  <si>
+    <t>Milda</t>
+  </si>
+  <si>
+    <t>Charla</t>
+  </si>
+  <si>
+    <t>Deeta</t>
+  </si>
+  <si>
+    <t>STAGES</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>Buttock (R)</t>
+  </si>
+  <si>
+    <t>Buttock (L)</t>
+  </si>
+  <si>
+    <t>Sacrum</t>
+  </si>
+  <si>
+    <t>Coccyx</t>
+  </si>
+  <si>
+    <t>Trochanter (R)</t>
+  </si>
+  <si>
+    <t>Trochanter (L)</t>
+  </si>
+  <si>
+    <t>Ischial tuberosity (R)</t>
+  </si>
+  <si>
+    <t>Ischial tuberosity (L)</t>
+  </si>
+  <si>
+    <t>Lateral ankle (R)</t>
+  </si>
+  <si>
+    <t>Lateral ankle (L)</t>
+  </si>
+  <si>
+    <t>Medial ankle (R)</t>
+  </si>
+  <si>
+    <t>Medial ankle (L)</t>
+  </si>
+  <si>
+    <t>Heel (R)</t>
+  </si>
+  <si>
+    <t>Heel (L)</t>
+  </si>
+  <si>
+    <t>Plantar</t>
+  </si>
+  <si>
+    <t>Toes</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>GRANTISSUE</t>
+  </si>
+  <si>
+    <t>NECTISSUE</t>
+  </si>
+  <si>
+    <t>EXUAMOUNT</t>
+  </si>
+  <si>
+    <t>EXUTYPE</t>
+  </si>
+  <si>
+    <t>GRANNECCOVERAGE</t>
+  </si>
+  <si>
+    <t>Serous</t>
+  </si>
+  <si>
+    <t>Serosanguineous</t>
+  </si>
+  <si>
+    <t>Sanguineous</t>
+  </si>
+  <si>
+    <t>Seropurulent</t>
+  </si>
+  <si>
+    <t>Purulent</t>
+  </si>
+  <si>
+    <t>EDGES</t>
+  </si>
+  <si>
+    <t>PERIWOUNDTISSUE</t>
+  </si>
+  <si>
+    <t>HEALINGSTATUS</t>
+  </si>
+  <si>
+    <t>Edematous</t>
+  </si>
+  <si>
+    <t>Erythematous</t>
+  </si>
+  <si>
+    <t>Ecchymotic</t>
+  </si>
+  <si>
+    <t>Macerated</t>
+  </si>
+  <si>
+    <t>Excoriated</t>
+  </si>
+  <si>
+    <t>Thin/fragile</t>
+  </si>
+  <si>
+    <t>Blisters/bruised/tape tear</t>
+  </si>
+  <si>
+    <t>Eczema/lesions/rashes</t>
+  </si>
+  <si>
+    <t>Hyperkeratotic, dry, scaly</t>
+  </si>
+  <si>
+    <t>Indurated or calloused</t>
+  </si>
+  <si>
+    <t>Hyper or hypopigmentation</t>
+  </si>
+  <si>
+    <t>Newly epithelialized</t>
+  </si>
+  <si>
+    <t>Fully granulating</t>
+  </si>
+  <si>
+    <t>Early/partial granulation</t>
+  </si>
+  <si>
+    <t>Not healing</t>
+  </si>
+  <si>
+    <t>Not observable due to non-removable dressing/device</t>
+  </si>
+  <si>
+    <t>WOUNDRELATEDPAIN</t>
   </si>
 </sst>
 </file>
@@ -530,11 +681,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCE51DE-A78C-411E-9C77-FF8933E1607F}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,107 +732,107 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -689,111 +842,438 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238E7811-4CE6-4971-A252-225B27044111}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B50FE69C-8DD2-4DB0-8096-FF6C322D2519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1EBC25B9-2999-4FD7-B078-538C8FF043B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>NAME</t>
   </si>
@@ -360,11 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,26 +954,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238E7811-4CE6-4971-A252-225B27044111}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D1" t="s">
@@ -1004,10 +1013,10 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -1039,10 +1048,10 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3">
@@ -1074,10 +1083,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4">
@@ -1109,10 +1118,10 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5">
@@ -1144,10 +1153,10 @@
       <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6">
@@ -1179,8 +1188,32 @@
       <c r="A7" t="s">
         <v>58</v>
       </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7" t="s">
         <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1190,8 +1223,32 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
       <c r="I8" t="s">
         <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1201,8 +1258,32 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
       <c r="I9" t="s">
         <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1212,8 +1293,32 @@
       <c r="A10" t="s">
         <v>61</v>
       </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
       <c r="I10" t="s">
         <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1223,8 +1328,32 @@
       <c r="A11" t="s">
         <v>62</v>
       </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
       <c r="I11" t="s">
         <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1234,46 +1363,288 @@
       <c r="A12" t="s">
         <v>63</v>
       </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12" t="s">
         <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
-    </row>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1EBC25B9-2999-4FD7-B078-538C8FF043B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E482784F-2255-4719-8BCD-D51FDC91D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="29100" windowHeight="16500" activeTab="1" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29130" windowHeight="16500" activeTab="1" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="wound_assessment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J19"/>
+  <oleSize ref="A1:F22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238E7811-4CE6-4971-A252-225B27044111}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E482784F-2255-4719-8BCD-D51FDC91D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{335483AD-A635-4370-8051-F10466CE3D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="29130" windowHeight="16500" activeTab="1" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="29160" windowHeight="16500" activeTab="2" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="wound_assessment" sheetId="2" r:id="rId2"/>
+    <sheet name="physician" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F22"/>
+  <oleSize ref="A1:O25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
   <si>
     <t>NAME</t>
   </si>
@@ -325,6 +326,72 @@
   </si>
   <si>
     <t>WOUNDRELATEDPAIN</t>
+  </si>
+  <si>
+    <t>Allergy and immunology</t>
+  </si>
+  <si>
+    <t>Anesthesiology</t>
+  </si>
+  <si>
+    <t>Dermatology</t>
+  </si>
+  <si>
+    <t>Diagnostic radiology</t>
+  </si>
+  <si>
+    <t>Emergency medicine</t>
+  </si>
+  <si>
+    <t>Family medicine</t>
+  </si>
+  <si>
+    <t>Internal medicine</t>
+  </si>
+  <si>
+    <t>Medical genetics</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Nuclear medicine</t>
+  </si>
+  <si>
+    <t>Obstetrics and gynecology</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>Pathology</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
+  </si>
+  <si>
+    <t>Physical medicine and rehabilitation</t>
+  </si>
+  <si>
+    <t>Preventive medicine</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Radiation oncology</t>
+  </si>
+  <si>
+    <t>Surgery</t>
+  </si>
+  <si>
+    <t>Urology</t>
+  </si>
+  <si>
+    <t>SPECIALTY</t>
+  </si>
+  <si>
+    <t>NPI</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238E7811-4CE6-4971-A252-225B27044111}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1647,4 +1714,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D495DBE-F16A-4ECF-AB9B-7B51C1C19BB7}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1881975639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>1962893818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>1962894006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>1982134821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1033698402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>1033698402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>1003209164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>1053556746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>1053863456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>1063776946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>1083123897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>1083697353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14">
+        <v>1003339334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>1013271410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>1033179130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17">
+        <v>1023594454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18">
+        <v>1033356589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19">
+        <v>1033442371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>1073641205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>1083275259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{335483AD-A635-4370-8051-F10466CE3D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{577F5D1C-1358-41CE-962A-9B1B37999619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="29160" windowHeight="16500" activeTab="2" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="29250" windowHeight="16500" activeTab="2" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>NAME</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,16 +406,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -423,19 +723,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1718,22 +2208,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D495DBE-F16A-4ECF-AB9B-7B51C1C19BB7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1741,161 +2232,796 @@
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="C2">
-        <v>1881975639</v>
+      <c r="B2" s="3">
+        <v>1760483382</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
-      <c r="C3">
-        <v>1962893818</v>
+      <c r="B3" s="3">
+        <v>1154991917</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
-      <c r="C4">
-        <v>1962894006</v>
+      <c r="B4" s="3">
+        <v>1518489855</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="C5">
-        <v>1982134821</v>
+      <c r="B5" s="3">
+        <v>1215074109</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="C6">
-        <v>1033698402</v>
+      <c r="B6" s="3">
+        <v>1205346913</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="C7">
-        <v>1033698402</v>
+      <c r="B7" s="3">
+        <v>1093136343</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="C8">
-        <v>1003209164</v>
+      <c r="B8" s="3">
+        <v>1548641871</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="C9">
-        <v>1053556746</v>
+      <c r="B9" s="3">
+        <v>1508093071</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
-      <c r="C10">
-        <v>1053863456</v>
+      <c r="B10" s="3">
+        <v>1316510472</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
-      <c r="C11">
-        <v>1063776946</v>
+      <c r="B11" s="3">
+        <v>1366911471</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
-      <c r="C12">
-        <v>1083123897</v>
+      <c r="B12" s="3">
+        <v>1225601388</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
-      <c r="C13">
-        <v>1083697353</v>
+      <c r="B13" s="3">
+        <v>1043883101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
-      <c r="C14">
-        <v>1003339334</v>
+      <c r="B14" s="3">
+        <v>1760058416</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
-      <c r="C15">
-        <v>1013271410</v>
+      <c r="B15" s="3">
+        <v>1104310168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
-      <c r="C16">
-        <v>1033179130</v>
+      <c r="B16" s="3">
+        <v>1457769762</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
-      <c r="C17">
-        <v>1023594454</v>
+      <c r="B17" s="3">
+        <v>1134792294</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="C18">
-        <v>1033356589</v>
+      <c r="B18" s="3">
+        <v>1912526401</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
-      <c r="C19">
-        <v>1033442371</v>
+      <c r="B19" s="3">
+        <v>1669611711</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="C20">
-        <v>1073641205</v>
+      <c r="B20" s="3">
+        <v>1033785613</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>120</v>
       </c>
-      <c r="C21">
-        <v>1083275259</v>
-      </c>
+      <c r="B21" s="3">
+        <v>1447733514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1497328553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1003392887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1952974016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1861065922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1770156838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1689247744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1184113524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1619321478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1255915526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1447782321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1881279651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1679146732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1306359328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1306419460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1215500376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1942873005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1851964910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1124691282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1033782198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1740681428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1588237648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1396318457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1205409364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1114590270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1023681186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1932772092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1659387389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1235747700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1467710699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1578148714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1083913503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1902301195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1710385943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1528044161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1043882236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1700125184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1447230099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1497069942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1841863909</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1750954814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1346707858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1235486820</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1689033524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1699984641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1861983348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1669045720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1578136636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1487227542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1295308351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1982276598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1104499268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1013580174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1922671080</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1831762996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1013250737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1629498738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1134790645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1437514791</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1487191276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1659343853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1487041661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1740853803</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1568035624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1861973299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1477126530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1386217446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1194398255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1003489162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1912570078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1821661984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1730752890</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1649843707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1558934612</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1770082018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1518490051</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1518546472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1831169861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1306416193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1447781992</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/healthcare/healthcarePackage/data.xlsx
+++ b/healthcare/healthcarePackage/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{577F5D1C-1358-41CE-962A-9B1B37999619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7D1E2187-A734-4A48-BA9E-2B663A82AE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="29250" windowHeight="16500" activeTab="2" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="29280" windowHeight="16500" activeTab="2" xr2:uid="{15FF64ED-9A39-45C8-9B4F-47D42B8B8433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D495DBE-F16A-4ECF-AB9B-7B51C1C19BB7}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
